--- a/differences_3_0.75.xlsx
+++ b/differences_3_0.75.xlsx
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>43417.60000000001</v>
+        <v>43417</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -7006,13 +7006,13 @@
         <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>25.60000000000582</v>
+        <v>25</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -7462,13 +7462,13 @@
         <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
       </c>
       <c r="X92" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -7614,13 +7614,13 @@
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
       </c>
       <c r="X94" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
